--- a/xo-starter-excel/src/test/resources/META-INF/xo/excel/chart.xlsx
+++ b/xo-starter-excel/src/test/resources/META-INF/xo/excel/chart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="15480" windowHeight="11640"/>
@@ -11,6 +11,43 @@
   </sheets>
   <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hesong</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="I21")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="employees",var="employee",lastCell="C20")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40,26 +77,26 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${employees.name}</t>
+    <t>${employee.name}</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${employees.payment}</t>
+    <t>${employee.payment}</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${employees.bonus}</t>
+    <t>${employee.bonus}</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="194" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -103,6 +140,19 @@
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -166,9 +216,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -178,25 +225,43 @@
     <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -229,6 +294,7 @@
           <c:y val="4.0650567877317856E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -236,12 +302,16 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
       <c:hPercent val="66"/>
+      <c:rotY val="20"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
@@ -255,6 +325,7 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
@@ -268,6 +339,7 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
@@ -295,6 +367,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -312,13 +385,14 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>职员薪资统计图表!$A$20:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>${employees.name}</c:v>
+                  <c:v>${employee.name}</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>合计：</c:v>
@@ -342,18 +416,30 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="67650688"/>
-        <c:axId val="67652224"/>
+        <c:axId val="192928768"/>
+        <c:axId val="169835840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67650688"/>
+        <c:axId val="192928768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln w="3175">
@@ -380,19 +466,21 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67652224"/>
+        <c:crossAx val="169835840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="2"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67652224"/>
+        <c:axId val="169835840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -405,6 +493,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -431,7 +521,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67650688"/>
+        <c:crossAx val="192928768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -454,6 +544,7 @@
           <c:h val="5.6910795028244997E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -485,6 +576,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -524,7 +616,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -557,6 +659,7 @@
           <c:y val="3.6764705882352942E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -564,9 +667,22 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -590,7 +706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>${employees.payment}</c:v>
+                  <c:v>${employee.payment}</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -607,10 +723,8 @@
             </a:ln>
           </c:spPr>
           <c:dPt>
-            <c:idx val="0"/>
-          </c:dPt>
-          <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="993366"/>
@@ -625,6 +739,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFFCC"/>
@@ -639,6 +754,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="CCFFFF"/>
@@ -653,6 +769,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="660066"/>
@@ -667,6 +784,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF8080"/>
@@ -685,7 +803,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>${employees.name}</c:v>
+                  <c:v>${employee.name}</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>合计：</c:v>
@@ -709,6 +827,15 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
@@ -729,6 +856,7 @@
           <c:h val="0.26131233595800524"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -760,6 +888,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -867,7 +996,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -941,6 +1070,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -975,6 +1105,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1150,14 +1281,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
@@ -1166,82 +1297,82 @@
     <col min="5" max="5" width="8" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" ht="20.100000000000001" customHeight="1"/>
-    <row r="3" ht="20.100000000000001" customHeight="1"/>
-    <row r="4" ht="20.100000000000001" customHeight="1"/>
-    <row r="5" ht="20.100000000000001" customHeight="1"/>
-    <row r="6" ht="20.100000000000001" customHeight="1"/>
-    <row r="7" ht="20.100000000000001" customHeight="1"/>
-    <row r="8" ht="20.100000000000001" customHeight="1"/>
-    <row r="9" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" ht="20.100000000000001" customHeight="1"/>
-    <row r="11" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" ht="20.100000000000001" customHeight="1"/>
-    <row r="13" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" ht="20.100000000000001" customHeight="1"/>
-    <row r="16" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1"/>
-    <row r="18" spans="1:3" ht="30" customHeight="1">
-      <c r="A18" s="3" t="s">
+    <row r="1" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" ht="16.5">
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" ht="16.5">
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="16.5">
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" ht="16.5">
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" ht="16.5">
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -1255,5 +1386,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>